--- a/AISA table.xlsx
+++ b/AISA table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongcheng/Desktop/git/Forschungsarbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongcheng/Desktop/git/ml_deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E4754C0-EF5A-544A-84D2-CDBB2C2519B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{928E4C30-1D83-C94C-B50E-744852132E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="4140" windowWidth="21420" windowHeight="11560" xr2:uid="{7607DD01-CC0C-4299-B829-2A30BD9BCB7A}"/>
+    <workbookView xWindow="6320" yWindow="4700" windowWidth="21420" windowHeight="11560" xr2:uid="{7607DD01-CC0C-4299-B829-2A30BD9BCB7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,192 +34,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
   <si>
     <t>Criteria</t>
   </si>
   <si>
-    <t>Open source models curated by Azure AI, Azure OpenAI models, exclusively available on Azure, ransformers models from the HuggingFace hub</t>
-  </si>
-  <si>
     <t>✔</t>
   </si>
   <si>
     <t>❓</t>
   </si>
   <si>
-    <t>Any ML models</t>
-  </si>
-  <si>
-    <t>Web apps possible</t>
-  </si>
-  <si>
-    <t>TensorFlow models only</t>
-  </si>
-  <si>
-    <t>TensorFlow, XGBoost, Scikit-learn, custom containers</t>
-  </si>
-  <si>
     <t>Pay-as-you-go</t>
   </si>
   <si>
-    <t>Consumption-based</t>
-  </si>
-  <si>
-    <t>Open-source and paid plans</t>
-  </si>
-  <si>
     <t>Open-source</t>
   </si>
   <si>
-    <t>CatBoost, Diffusersfast, aiKeras, LightGBM, Mlflow, ONNX, PyTorch, PyTorch Lightning, Scikit-Learn, TensorFlow, Transformers, XGBoost, Detectron2, EasyOCR and custom models</t>
-  </si>
-  <si>
-    <t>PyTorch, TensorFlow, Hugging Face, Jupyter, scikit-learn, HOROVOD, dmlcXGBoost</t>
-  </si>
-  <si>
-    <t>any ML frameworks</t>
-  </si>
-  <si>
-    <t>Tensorflow, PyTorch, Scikit-Learn, others</t>
-  </si>
-  <si>
-    <t>most common ML frameworks</t>
-  </si>
-  <si>
     <t>only TensorFlow models</t>
   </si>
   <si>
     <t>only Pytorch models</t>
   </si>
   <si>
-    <t>custom models and all AutoML data types</t>
+    <t>Open-source*</t>
   </si>
   <si>
     <t>AWS SageMaker</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Azure ML</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BentoML</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Kubeflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MLflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RayServe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Seldon Core</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TensorFlow Serving</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TorchServe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Vertex AI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>✔*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> (with limitations)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>✔*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> (via Kakapo)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>not much customization available, can be used only with AWS ecosystem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supported Input Model Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supported Input Model Type†</t>
+  </si>
+  <si>
+    <t>Pytorch, Tensorflow, Scikit Learn, others</t>
   </si>
   <si>
     <t>Model Metrics Monitoring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔*</t>
   </si>
   <si>
     <t>Anomaly Detection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Model Explainability</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CI/CD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deployment Focus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Popularity</t>
+  </si>
+  <si>
+    <t>6.2k</t>
+  </si>
+  <si>
+    <t>13.4k</t>
+  </si>
+  <si>
+    <t>16.3k</t>
+  </si>
+  <si>
+    <t>29.6k</t>
+  </si>
+  <si>
+    <t>4.1k</t>
+  </si>
+  <si>
+    <t>6k</t>
+  </si>
+  <si>
+    <t>3.8k</t>
   </si>
   <si>
     <t>Cost Plan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free Tier + different plans based on usage</t>
+  </si>
+  <si>
+    <t>purchase plan offered after consultation</t>
   </si>
   <si>
     <t>Docker Support</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Offline Batch Processing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>it is specified clearly on its official website or docs that there is no need to incoorperate with external libraries or products</t>
+  </si>
+  <si>
+    <t>it is specified clearly on its official website or docs that it can incoorperate with external libraries or products</t>
+  </si>
+  <si>
+    <t>it is not specified clearly on its official website or docs about the avalability of this feature</t>
+  </si>
+  <si>
+    <t>It is specified that the feature is not available with the framework</t>
   </si>
 </sst>
 </file>
@@ -235,13 +178,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
@@ -249,18 +185,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -283,14 +224,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -605,17 +546,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D547F29-AFF1-4E9D-A32A-B48719C57275}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -623,358 +564,391 @@
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="32">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="350">
-      <c r="A2" s="1" t="s">
+      <c r="H7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="48">
-      <c r="A3" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="34">
-      <c r="A4" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="48">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="80">
-      <c r="A7" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="48">
-      <c r="A8" s="1" t="s">
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="32">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="48">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>